--- a/ScreenOutput.xlsx
+++ b/ScreenOutput.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,1284 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ADES</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ADMP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ADMS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ADOC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ADPT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ADTN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ADTX</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ADUS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ADXN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AEHR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AEIS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AEPPL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AERI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AEY</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AFINO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AFMD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AFYA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AGCUU</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AGCWW</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AGLE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AGMH</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AGNCM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AGNCO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AGNCP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AGTC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AGZD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AIRT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AKER</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AKTS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AKUS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ALAC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ALCO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ALGM</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ALTM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ALTUU</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ALTY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ALXN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ALXO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AMCA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AMCX</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AMEH</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AMKR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AMOT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AMRK</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AMSC</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AMTBB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AMTI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ANGL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ANIP</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ANPC</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ANTE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AOUT</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>APLS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>APLT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>APPF</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>APRE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>APTO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>APWC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AQB</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AQMS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AQST</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ARAV</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ARBG</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ARDX</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ARKR</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ARTL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ARTNA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ASLE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>False Breakout</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ScreenOutput.xlsx
+++ b/ScreenOutput.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AAON</t>
+          <t>AAME</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABMD</t>
+          <t>AAXN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABTX</t>
+          <t>ABEO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ACAC</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACAD</t>
+          <t>ACACU</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACBI</t>
+          <t>ACAMU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ACET</t>
+          <t>ACGLP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACHC</t>
+          <t>ACRS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ACIW</t>
+          <t>ACRX</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ADES</t>
+          <t>ACTCW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADMP</t>
+          <t>ADERU</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -654,7 +654,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ADMS</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ADOC</t>
+          <t>ADPT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ADPT</t>
+          <t>ADRE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -708,16 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ADTN</t>
+          <t>ADTX</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>False Breakout</t>
+          <t>Momentum</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -726,7 +726,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ADTX</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ADUS</t>
+          <t>ADVM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -762,16 +762,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADXS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>False Breakout</t>
+          <t>Momentum</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ADXN</t>
+          <t>ADXS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -798,7 +798,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AEHR</t>
+          <t>AESE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AEIS</t>
+          <t>AFIN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>AGC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AEPPL</t>
+          <t>AGCUU</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AERI</t>
+          <t>AGIO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -888,7 +888,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AEY</t>
+          <t>AGNCN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AFINO</t>
+          <t>AGTC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AFMD</t>
+          <t>AHACU</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -942,12 +942,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AFYA</t>
+          <t>AIHS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>False Breakout</t>
+          <t>Momentum</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AGCUU</t>
+          <t>AIKI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AGCWW</t>
+          <t>AIMC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -996,7 +996,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AGLE</t>
+          <t>AIRG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AGMH</t>
+          <t>AIRT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AGNCM</t>
+          <t>AKAM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AGNCO</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AGNCP</t>
+          <t>AKTS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AGTC</t>
+          <t>AKU</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AGZD</t>
+          <t>ALAC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AIRT</t>
+          <t>ALBO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AKER</t>
+          <t>ALGT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AKTS</t>
+          <t>ALLK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AKUS</t>
+          <t>ALLO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ALAC</t>
+          <t>ALNA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALCO</t>
+          <t>ALNY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ALGM</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ALTM</t>
+          <t>ALXO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALTUU</t>
+          <t>ALYA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ALTY</t>
+          <t>AMCI</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALXN</t>
+          <t>AMCX</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ALXO</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>AMED</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMCA</t>
+          <t>AMEH</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMCX</t>
+          <t>AMKR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMEH</t>
+          <t>AMOT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMKR</t>
+          <t>AMRK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMOT</t>
+          <t>AMRN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMRK</t>
+          <t>AMWD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMSC</t>
+          <t>ANIK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMTBB</t>
+          <t>ANIP</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMTI</t>
+          <t>AOSL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANGL</t>
+          <t>APDN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ANIP</t>
+          <t>APEI</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANPC</t>
+          <t>APEN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ANTE</t>
+          <t>APLT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AOUT</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>APLS</t>
+          <t>APPN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>APLT</t>
+          <t>APTO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>APWC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>APRE</t>
+          <t>APXT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>APTO</t>
+          <t>AQMS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>APWC</t>
+          <t>ARAV</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AQB</t>
+          <t>ARBG</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AQMS</t>
+          <t>ARCE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AQST</t>
+          <t>ARDS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ARAV</t>
+          <t>AREC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>False Breakout</t>
+          <t>Momentum</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ARBG</t>
+          <t>ARKO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ARDX</t>
+          <t>ARRY</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1815,78 +1815,6 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ARKR</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>False Breakout</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ARTL</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>False Breakout</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ARTNA</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>False Breakout</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ASLE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>False Breakout</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
         <v>2</v>
       </c>
     </row>
